--- a/Inputs_Data_largePlans/78_NY_NY-NYSTRS.xlsx
+++ b/Inputs_Data_largePlans/78_NY_NY-NYSTRS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\PPD150_Experiment\Inputs_largePlans_raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\PenSim-Projects\PPD150_Experiment\Inputs_Data_largePlans\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6776,7 +6776,7 @@
       <c r="N30" s="146"/>
       <c r="O30" s="146"/>
     </row>
-    <row r="31" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="B31" s="64" t="s">
         <v>289</v>
       </c>
@@ -7427,7 +7427,7 @@
       <c r="N48" s="146"/>
       <c r="O48" s="146"/>
     </row>
-    <row r="49" spans="12:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="49" spans="12:15" ht="75" x14ac:dyDescent="0.25">
       <c r="L49" s="66"/>
       <c r="M49" s="64" t="s">
         <v>289</v>
@@ -9265,7 +9265,7 @@
     <row r="148" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="149" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="150" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" spans="1:4" s="21" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" s="21" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="B151" s="51" t="s">
         <v>294</v>
       </c>
@@ -24339,7 +24339,7 @@
       <pane xSplit="5" ySplit="7" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24469,10 +24469,10 @@
         <v>21</v>
       </c>
       <c r="F11" s="135">
-        <v>48422365</v>
+        <v>40896.9</v>
       </c>
       <c r="G11" s="135">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="H11" s="28" t="s">
         <v>254</v>
@@ -24499,10 +24499,10 @@
         <v>22</v>
       </c>
       <c r="F12" s="136">
-        <v>342018</v>
+        <v>64504.9</v>
       </c>
       <c r="G12" s="135">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="H12" s="28" t="s">
         <v>254</v>
@@ -24529,10 +24529,10 @@
         <v>101</v>
       </c>
       <c r="F13" s="136">
-        <v>64260416</v>
+        <v>105401.8</v>
       </c>
       <c r="G13" s="135">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="H13" s="28" t="s">
         <v>254</v>
@@ -24559,11 +24559,10 @@
         <v>25</v>
       </c>
       <c r="F14" s="136">
-        <f>F11+F16</f>
-        <v>100607407</v>
+        <v>52185.042000000001</v>
       </c>
       <c r="G14" s="135">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="H14" s="28" t="s">
         <v>254</v>
@@ -24592,10 +24591,11 @@
         <v>26</v>
       </c>
       <c r="F15" s="136">
-        <v>342018</v>
+        <f>F12</f>
+        <v>64504.9</v>
       </c>
       <c r="G15" s="135">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="H15" s="28" t="s">
         <v>254</v>
@@ -24622,10 +24622,11 @@
         <v>109</v>
       </c>
       <c r="F16" s="136">
-        <v>52185042</v>
+        <f>F14-F11</f>
+        <v>11288.142</v>
       </c>
       <c r="G16" s="135">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="28" t="s">
         <v>254</v>
